--- a/user/kategori.xlsx
+++ b/user/kategori.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,6 +477,28 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>positif</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>refund dan pembayaran</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Paylater sangat membantu</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29-06-2025</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/user/kategori.xlsx
+++ b/user/kategori.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,66 +436,52 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>sentiment</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>kategori</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>review</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>tanggal</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>negatif</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>refund dan pembayaran</t>
-        </is>
-      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Paylater tidak bisa digunakan</t>
+          <t>pengalaman pengguna dan aplikasi</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>29-06-2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>positif</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>refund dan pembayaran</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Paylater sangat membantu</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>29-06-2025</t>
+          <t>lumayan mempermudah perjalanan namun aplikasi harus dibuka pada jaringan tinggi lemah lambat satu hal lagi karcis kapal laut tidak ada bagaimana agar bisa bermitra dengan traveloka terima kasih</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>30-06-2025</t>
         </is>
       </c>
     </row>

--- a/user/kategori.xlsx
+++ b/user/kategori.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,56 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>negatif</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>hotel dan penginapan</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>overall aplikasi sudah user friendly dan aplikatif sekali tapi ada catatan  setiap reservasi kamar ada kolom permintaan khusus tapi setiap saya pesan kamar dan mengisi permintaan khusus tersebut tidak pernah sampai ke pihak hotel hotelnya selalu bilang setiap selesai pesan via traveloka harus telepon lagi ke hotelnya untuk menyampaikan apa saja permintaan khususnya jadi kalau seperti itu untuk apa saya mengisi kolom permintaan khusus kalau tidak ada gunanya</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>30-06-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>negatif</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>pengalaman pengguna dan aplikasi</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>aplikasi paling buruk untuk merefund dana sangat kecewa menggunakan aplikasi traveloka kembalikan dana saya sudah dari bulan mei mengajukan dan pihak maskapai sudah saya konfirmasi dan sudah mengembalikan dari bulan juni ke pihak traveloka tapi pihak traveloka tidak ada tindaklanjutnya malah purapura tidak tahu dan memberikan informasi palsu katanya uang belum dikembalikan pihak maskapai malah menawarkan kupon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>30-06-2025</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
